--- a/exp6/data/lenses.xlsx
+++ b/exp6/data/lenses.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
   <si>
     <t>lamp</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>3C-4C</t>
+  </si>
+  <si>
+    <t>sfz [m]</t>
   </si>
   <si>
     <t>2C-1C</t>
@@ -168,11 +171,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellXfs count="2">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -198,10 +197,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I14" activeCellId="0" pane="topLeft" sqref="I14"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A25" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F50" activeCellId="0" pane="topLeft" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -259,7 +258,7 @@
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="0" t="n">
         <f aca="false">B2-B1</f>
         <v>68.7</v>
       </c>
@@ -305,10 +304,6 @@
       <c r="C8" s="0" t="n">
         <v>77.25</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="B9" s="0" t="n">
@@ -317,10 +312,6 @@
       <c r="C9" s="0" t="n">
         <v>77.15</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="B10" s="0" t="n">
@@ -329,10 +320,6 @@
       <c r="C10" s="0" t="n">
         <v>77.2</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="B11" s="0" t="n">
@@ -341,10 +328,6 @@
       <c r="C11" s="0" t="n">
         <v>77.1</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="B12" s="0" t="n">
@@ -353,10 +336,6 @@
       <c r="C12" s="0" t="n">
         <v>77.3</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="D13" s="0" t="s">
@@ -382,11 +361,11 @@
       <c r="A14" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="1" t="n">
         <f aca="false">AVERAGE(B8:B12)</f>
         <v>33.49</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="1" t="n">
         <f aca="false">AVERAGE(C8:C12)</f>
         <v>77.2</v>
       </c>
@@ -417,11 +396,11 @@
       <c r="A15" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="1" t="n">
         <f aca="false">STDEV(B8:B12)</f>
         <v>0.0223606797749966</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="1" t="n">
         <f aca="false">STDEV(C8:C12)</f>
         <v>0.0790569415042095</v>
       </c>
@@ -430,11 +409,11 @@
       <c r="A16" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="1" t="n">
         <f aca="false">B15/SQRT(5)</f>
         <v>0.00999999999999943</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="1" t="n">
         <f aca="false">C15/SQRT(5)</f>
         <v>0.0353553390593274</v>
       </c>
@@ -457,10 +436,6 @@
       <c r="C19" s="0" t="n">
         <v>83.9</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="B20" s="0" t="n">
@@ -469,10 +444,6 @@
       <c r="C20" s="0" t="n">
         <v>83.85</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="B21" s="0" t="n">
@@ -481,10 +452,6 @@
       <c r="C21" s="0" t="n">
         <v>83.85</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="B22" s="0" t="n">
@@ -493,10 +460,6 @@
       <c r="C22" s="0" t="n">
         <v>83.8</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="B23" s="0" t="n">
@@ -505,10 +468,6 @@
       <c r="C23" s="0" t="n">
         <v>83.85</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="D24" s="0" t="s">
@@ -534,11 +493,11 @@
       <c r="A25" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="1" t="n">
         <f aca="false">AVERAGE(B19:B23)</f>
         <v>27.4</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="1" t="n">
         <f aca="false">AVERAGE(C19:C23)</f>
         <v>83.85</v>
       </c>
@@ -569,11 +528,11 @@
       <c r="A26" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="1" t="n">
         <f aca="false">STDEV(B19:B23)</f>
         <v>0.0612372435695789</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="1" t="n">
         <f aca="false">STDEV(C19:C23)</f>
         <v>0.0353553390593304</v>
       </c>
@@ -582,11 +541,11 @@
       <c r="A27" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="1" t="n">
         <f aca="false">B26/SQRT(5)</f>
         <v>0.027386127875258</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="1" t="n">
         <f aca="false">C26/SQRT(5)</f>
         <v>0.0158113883008432</v>
       </c>
@@ -609,10 +568,6 @@
       <c r="C30" s="0" t="n">
         <v>78.55</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="31">
       <c r="B31" s="0" t="n">
@@ -621,10 +576,6 @@
       <c r="C31" s="0" t="n">
         <v>78.6</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="32">
       <c r="B32" s="0" t="n">
@@ -633,10 +584,6 @@
       <c r="C32" s="0" t="n">
         <v>78.55</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="33">
       <c r="B33" s="0" t="n">
@@ -645,10 +592,6 @@
       <c r="C33" s="0" t="n">
         <v>78.5</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="34">
       <c r="B34" s="0" t="n">
@@ -657,10 +600,6 @@
       <c r="C34" s="0" t="n">
         <v>78.5</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="35">
       <c r="D35" s="0" t="s">
@@ -686,11 +625,11 @@
       <c r="A36" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="1" t="n">
         <f aca="false">AVERAGE(B30:B34)</f>
         <v>32.21</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="1" t="n">
         <f aca="false">AVERAGE(C30:C34)</f>
         <v>78.54</v>
       </c>
@@ -722,11 +661,11 @@
       <c r="A37" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="1" t="n">
         <f aca="false">STDEV(B30:B34)</f>
         <v>0.0223606797749966</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="1" t="n">
         <f aca="false">STDEV(C30:C34)</f>
         <v>0.0418330013267014</v>
       </c>
@@ -735,18 +674,27 @@
       <c r="A38" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="1" t="n">
         <f aca="false">B37/SQRT(5)</f>
         <v>0.00999999999999943</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="1" t="n">
         <f aca="false">C37/SQRT(5)</f>
         <v>0.0187082869338686</v>
       </c>
+      <c r="E38" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="39">
+      <c r="E39" s="0" t="n">
+        <f aca="false">SQRT((F14^4*E36^2+F36^4*E14^2)/(F36-F14)^4)</f>
+        <v>0.0684555898148377</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="40">
       <c r="A40" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>11</v>
@@ -762,10 +710,6 @@
       <c r="C41" s="0" t="n">
         <v>79.2</v>
       </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="42">
       <c r="B42" s="0" t="n">
@@ -774,10 +718,6 @@
       <c r="C42" s="0" t="n">
         <v>79.15</v>
       </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="43">
       <c r="B43" s="0" t="n">
@@ -786,10 +726,6 @@
       <c r="C43" s="0" t="n">
         <v>79.2</v>
       </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="44">
       <c r="B44" s="0" t="n">
@@ -798,10 +734,6 @@
       <c r="C44" s="0" t="n">
         <v>79.2</v>
       </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="45">
       <c r="B45" s="0" t="n">
@@ -810,10 +742,6 @@
       <c r="C45" s="0" t="n">
         <v>79.2</v>
       </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="46">
       <c r="D46" s="0" t="s">
@@ -839,11 +767,11 @@
       <c r="A47" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" s="1" t="n">
         <f aca="false">AVERAGE(B41:B45)</f>
         <v>28.95</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" s="1" t="n">
         <f aca="false">AVERAGE(C41:C45)</f>
         <v>79.19</v>
       </c>
@@ -875,11 +803,11 @@
       <c r="A48" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" s="1" t="n">
         <f aca="false">STDEV(B41:B45)</f>
         <v>0.0500000000000007</v>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" s="1" t="n">
         <f aca="false">STDEV(C41:C45)</f>
         <v>0.0223606797749966</v>
       </c>
@@ -888,13 +816,22 @@
       <c r="A49" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="2" t="n">
+      <c r="B49" s="1" t="n">
         <f aca="false">B48/SQRT(5)</f>
         <v>0.0223606797749982</v>
       </c>
-      <c r="C49" s="2" t="n">
+      <c r="C49" s="1" t="n">
         <f aca="false">C48/SQRT(5)</f>
         <v>0.00999999999999943</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="50">
+      <c r="E50" s="0" t="n">
+        <f aca="false">SQRT((F25^4*E47^2+F47^4*E25^2)/(F47-F25)^4)</f>
+        <v>0.00512737944202897</v>
       </c>
     </row>
   </sheetData>
